--- a/data/long_dif/P24_3-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_3-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,65</t>
+          <t>1,93; 10,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 20,19</t>
+          <t>7,09; 20,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,2; 26,68</t>
+          <t>12,95; 25,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 17,01</t>
+          <t>7,34; 21,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 19,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 18,84</t>
+          <t>3,5; 13,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,67</t>
+          <t>7,34; 19,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 18,92</t>
+          <t>10,94; 20,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,94; 21,3</t>
+          <t>9,82; 22,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 10,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 17,92</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 21,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 20,84</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>77,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>65,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,38%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>62,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>58,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>77,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>72,4%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>64,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>61,26%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,15; 82,69</t>
+          <t>67,62; 86,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,34; 82,13</t>
+          <t>65,9; 84,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,28; 73,94</t>
+          <t>58,52; 74,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,29; 77,39</t>
+          <t>53,5; 79,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,23; 74,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,54; 70,73</t>
+          <t>69,74; 85,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,7; 78,0</t>
+          <t>61,21; 78,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,9; 75,95</t>
+          <t>55,83; 68,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,97; 70,38</t>
+          <t>47,85; 66,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>71,27; 83,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65,8; 78,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>59,61; 69,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>53,98; 69,32</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>25,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,68; 35,67</t>
+          <t>10,09; 26,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 19,8</t>
+          <t>6,37; 19,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 19,28</t>
+          <t>10,11; 20,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 22,42</t>
+          <t>12,6; 30,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 24,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 27,25</t>
+          <t>8,55; 23,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 25,51</t>
+          <t>10,81; 25,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 20,14</t>
+          <t>17,41; 28,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 22,27</t>
+          <t>19,01; 36,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 22,5</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,41; 20,41</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15,62; 23,05</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 30,01</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 15,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 14,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 13,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>77,65%</t>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,8; 86,61</t>
+          <t>5,65; 14,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,79; 83,82</t>
+          <t>6,38; 17,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,61; 82,06</t>
+          <t>7,81; 13,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70,42; 78,94</t>
+          <t>6,46; 13,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,58; 79,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,59; 81,52</t>
+          <t>6,92; 14,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,98; 81,54</t>
+          <t>8,24; 18,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>74,28; 81,03</t>
+          <t>9,9; 15,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>74,55; 80,51</t>
+          <t>7,88; 15,12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 12,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,47; 15,25</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 13,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 13,37</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>70,51%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76,35%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>77,3%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>73,11%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,05</t>
+          <t>76,25; 87,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,99</t>
+          <t>72,04; 84,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 14,55</t>
+          <t>73,36; 81,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,06; 18,38</t>
+          <t>70,06; 80,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,21; 16,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 14,11</t>
+          <t>66,07; 77,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,33</t>
+          <t>68,06; 78,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,38</t>
+          <t>71,98; 80,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,86; 12,99</t>
+          <t>65,08; 75,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72,49; 80,65</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71,88; 79,92</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>74,36; 80,07</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>69,06; 76,85</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 13,19</t>
+          <t>5,97; 13,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,49; 19,29</t>
+          <t>7,31; 14,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,36; 16,06</t>
+          <t>8,74; 15,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,11; 15,08</t>
+          <t>11,28; 20,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,05</t>
+          <t>12,5; 23,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,55</t>
+          <t>10,79; 18,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,91</t>
+          <t>8,19; 15,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,99</t>
+          <t>14,59; 23,7</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 17,57</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 15,44</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 13,92</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 19,82</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>75,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>78,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,22; 82,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,46; 80,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,14; 82,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>74,77; 83,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,16; 86,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>77,49; 85,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>74,59; 81,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,52; 81,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,63; 82,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
           <t>9,15%</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>11,01%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>9,46%</t>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,32; 20,59</t>
+          <t>5,06; 12,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,26; 15,74</t>
+          <t>8,85; 20,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,33</t>
+          <t>9,08; 16,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,8</t>
+          <t>7,99; 17,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 14,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,19</t>
+          <t>6,49; 14,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,86</t>
+          <t>4,3; 10,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,15</t>
+          <t>6,71; 12,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,77</t>
+          <t>4,93; 10,6</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 12,04</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 13,96</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 13,3</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 12,53</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>73,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>77,64%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>76,19%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>79,77%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>78,07%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>79,78%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>73,79%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,91</t>
+          <t>71,21; 83,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,79</t>
+          <t>66,6; 79,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,02; 15,67</t>
+          <t>72,78; 82,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,13</t>
+          <t>64,19; 77,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,8; 13,46</t>
+          <t>76,68; 86,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,94</t>
+          <t>77,3; 86,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,27</t>
+          <t>77,45; 85,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,87; 13,79</t>
+          <t>70,89; 80,86</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>75,81; 83,74</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>73,79; 82,06</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>76,89; 82,8</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>69,7; 77,54</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>75,51%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>75,53%</t>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>75,89; 82,74</t>
+          <t>9,74; 20,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>73,9; 80,27</t>
+          <t>9,23; 17,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>72,46; 78,27</t>
+          <t>6,88; 13,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>72,63; 78,52</t>
+          <t>12,48; 23,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>72,41; 78,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>73,08; 78,1</t>
+          <t>5,39; 12,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>75,15; 79,77</t>
+          <t>7,34; 15,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>73,98; 78,56</t>
+          <t>6,43; 12,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>73,54; 77,53</t>
+          <t>12,2; 21,59</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 14,24</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 15,08</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 11,66</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 20,56</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,05; 15,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,81; 14,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,37; 15,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>10,94; 14,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,71; 13,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 10,75</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 18,08</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 18,75</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 22,07</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 13,39</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 18,26</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>81,59%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>79,06%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>71,72%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>70,28%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>76,78%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>74,85%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>76,26; 85,73</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>71,92; 85,61</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>67,22; 76,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>62,96; 77,74</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>73,17; 79,7</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>69,38; 80,04</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 15,66</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 14,29</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 17,45</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 20,61</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 15,19</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 15,53</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>12,84%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,03</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 15,24</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>10,76; 15,15</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 14,08</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 13,52</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 13,88</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 13,82</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 13,65</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 11,0</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 13,4</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 13,87</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 13,09</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>80,43%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>76,98%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>75,41%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>72,02%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>74,9%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>74,93%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>74,86%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>69,57%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>77,59%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>75,93%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>75,13%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>70,77%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>77,3; 83,36</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>73,41; 80,17</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>72,6; 78,38</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>67,79; 76,14</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>71,95; 77,63</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>71,72; 77,85</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>72,24; 77,44</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>65,97; 72,6</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>75,62; 79,67</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>73,51; 78,21</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>73,14; 77,06</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>68,04; 73,37</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 14,61</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>9,32; 13,49</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 14,03</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 20,02</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 16,31</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 16,73</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 15,52</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 22,53</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>11,14; 14,42</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 14,49</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 14,23</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 20,39</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_3-Estudios-long_dif.xlsx
+++ b/data/long_dif/P24_3-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
